--- a/TodoProjetCloud.xlsx
+++ b/TodoProjetCloud.xlsx
@@ -20032,9 +20032,8 @@
         <f>Task!I137</f>
         <v>30</v>
       </c>
-      <c r="G138" s="21">
-        <f>Task!I134</f>
-        <v>45</v>
+      <c r="G138" s="19">
+        <v>45.0</v>
       </c>
     </row>
     <row r="139">
@@ -20049,9 +20048,8 @@
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="G139" s="21">
-        <f>Task!I135</f>
-        <v>30</v>
+      <c r="G139" s="19">
+        <v>30.0</v>
       </c>
     </row>
     <row r="140">
@@ -20134,9 +20132,8 @@
         <f>Task!I142</f>
         <v>10</v>
       </c>
-      <c r="G144" s="21">
-        <f>Task!I139</f>
-        <v>20</v>
+      <c r="G144" s="19">
+        <v>20.0</v>
       </c>
     </row>
     <row r="145">
@@ -20151,9 +20148,8 @@
         <f>Task!I143</f>
         <v>30</v>
       </c>
-      <c r="G145" s="21">
-        <f>Task!I140</f>
-        <v>30</v>
+      <c r="G145" s="19">
+        <v>30.0</v>
       </c>
     </row>
     <row r="146">
@@ -20168,9 +20164,8 @@
         <f>Task!I144</f>
         <v/>
       </c>
-      <c r="G146" s="21">
-        <f>Task!I141</f>
-        <v>30</v>
+      <c r="G146" s="19">
+        <v>30.0</v>
       </c>
     </row>
     <row r="147">
@@ -20185,9 +20180,8 @@
         <f>Task!I145</f>
         <v/>
       </c>
-      <c r="G147" s="21">
-        <f>Task!I142</f>
-        <v>10</v>
+      <c r="G147" s="19">
+        <v>10.0</v>
       </c>
     </row>
     <row r="148">
@@ -20202,9 +20196,8 @@
         <f>Task!I146</f>
         <v/>
       </c>
-      <c r="G148" s="21">
-        <f>Task!I143</f>
-        <v>30</v>
+      <c r="G148" s="19">
+        <v>30.0</v>
       </c>
     </row>
     <row r="149">

--- a/TodoProjetCloud.xlsx
+++ b/TodoProjetCloud.xlsx
@@ -10333,15 +10333,15 @@
         <v>30.0</v>
       </c>
       <c r="I123" s="19">
-        <v>30.0</v>
+        <v>20.0</v>
       </c>
       <c r="J123" s="12">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K123" s="13">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>0.6666666667</v>
       </c>
     </row>
     <row r="124">
@@ -10370,15 +10370,15 @@
         <v>15.0</v>
       </c>
       <c r="I124" s="19">
-        <v>15.0</v>
+        <v>10.0</v>
       </c>
       <c r="J124" s="12">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K124" s="13">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>0.6666666667</v>
       </c>
     </row>
     <row r="125">
@@ -17617,7 +17617,7 @@
       </c>
       <c r="B10" s="23">
         <f>Avancement!D2</f>
-        <v>0.976127321</v>
+        <v>0.9721485411</v>
       </c>
     </row>
   </sheetData>
@@ -17667,15 +17667,15 @@
       </c>
       <c r="B2" s="25">
         <f>SUM(Task!I:I)</f>
-        <v>3680</v>
+        <v>3665</v>
       </c>
       <c r="C2" s="25">
         <f>SUM(Task!J:J)</f>
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="D2" s="26">
         <f>(B2/(B2+C2))</f>
-        <v>0.976127321</v>
+        <v>0.9721485411</v>
       </c>
       <c r="E2" s="27">
         <f>((B2+C2)-A2)/A2</f>
@@ -17687,7 +17687,7 @@
       <c r="B3" s="2"/>
       <c r="C3" s="25">
         <f>C2/60</f>
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="D3" s="28" t="s">
         <v>215</v>
@@ -19847,14 +19847,14 @@
       </c>
       <c r="B127" s="25">
         <f>SUM(C127:X127)</f>
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C127" s="35"/>
       <c r="D127" s="34"/>
       <c r="E127" s="35"/>
       <c r="F127" s="35">
         <f>Task!I123</f>
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="128">
@@ -19863,14 +19863,14 @@
       </c>
       <c r="B128" s="25">
         <f>SUM(D128:X128)</f>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C128" s="35"/>
       <c r="D128" s="34"/>
       <c r="E128" s="35"/>
       <c r="F128" s="35">
         <f>Task!I124</f>
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="129">
